--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H2">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I2">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J2">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.44764055915157</v>
+        <v>0.4806873333333333</v>
       </c>
       <c r="N2">
-        <v>0.44764055915157</v>
+        <v>1.442062</v>
       </c>
       <c r="O2">
-        <v>0.0628627580329211</v>
+        <v>0.06311654432781515</v>
       </c>
       <c r="P2">
-        <v>0.0628627580329211</v>
+        <v>0.06311654432781515</v>
       </c>
       <c r="Q2">
-        <v>1.970969678745061</v>
+        <v>9.347707698367556</v>
       </c>
       <c r="R2">
-        <v>1.970969678745061</v>
+        <v>84.129369285308</v>
       </c>
       <c r="S2">
-        <v>0.03012653990903624</v>
+        <v>0.05007735867274366</v>
       </c>
       <c r="T2">
-        <v>0.03012653990903624</v>
+        <v>0.05007735867274366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H3">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I3">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J3">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.34558481553658</v>
+        <v>3.424957333333333</v>
       </c>
       <c r="N3">
-        <v>3.34558481553658</v>
+        <v>10.274872</v>
       </c>
       <c r="O3">
-        <v>0.4698249174210321</v>
+        <v>0.44971326756452</v>
       </c>
       <c r="P3">
-        <v>0.4698249174210321</v>
+        <v>0.44971326756452</v>
       </c>
       <c r="Q3">
-        <v>14.73067195159981</v>
+        <v>66.60358576409423</v>
       </c>
       <c r="R3">
-        <v>14.73067195159981</v>
+        <v>599.4322718768481</v>
       </c>
       <c r="S3">
-        <v>0.2251603265248377</v>
+        <v>0.3568074399440045</v>
       </c>
       <c r="T3">
-        <v>0.2251603265248377</v>
+        <v>0.3568074399440045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H4">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I4">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J4">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.32769284714904</v>
+        <v>3.710224333333334</v>
       </c>
       <c r="N4">
-        <v>3.32769284714904</v>
+        <v>11.130673</v>
       </c>
       <c r="O4">
-        <v>0.4673123245460469</v>
+        <v>0.4871701881076649</v>
       </c>
       <c r="P4">
-        <v>0.4673123245460469</v>
+        <v>0.4871701881076648</v>
       </c>
       <c r="Q4">
-        <v>14.65189328317052</v>
+        <v>72.15104322152024</v>
       </c>
       <c r="R4">
-        <v>14.65189328317052</v>
+        <v>649.3593889936822</v>
       </c>
       <c r="S4">
-        <v>0.2239561838513049</v>
+        <v>0.3865261716139971</v>
       </c>
       <c r="T4">
-        <v>0.2239561838513049</v>
+        <v>0.386526171613997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H5">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I5">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J5">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.44764055915157</v>
+        <v>0.4806873333333333</v>
       </c>
       <c r="N5">
-        <v>0.44764055915157</v>
+        <v>1.442062</v>
       </c>
       <c r="O5">
-        <v>0.0628627580329211</v>
+        <v>0.06311654432781515</v>
       </c>
       <c r="P5">
-        <v>0.0628627580329211</v>
+        <v>0.06311654432781515</v>
       </c>
       <c r="Q5">
-        <v>1.101634717776379</v>
+        <v>1.213454635034889</v>
       </c>
       <c r="R5">
-        <v>1.101634717776379</v>
+        <v>10.921091715314</v>
       </c>
       <c r="S5">
-        <v>0.01683863666101723</v>
+        <v>0.006500695673481255</v>
       </c>
       <c r="T5">
-        <v>0.01683863666101723</v>
+        <v>0.006500695673481255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H6">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I6">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J6">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.34558481553658</v>
+        <v>3.424957333333333</v>
       </c>
       <c r="N6">
-        <v>3.34558481553658</v>
+        <v>10.274872</v>
       </c>
       <c r="O6">
-        <v>0.4698249174210321</v>
+        <v>0.44971326756452</v>
       </c>
       <c r="P6">
-        <v>0.4698249174210321</v>
+        <v>0.44971326756452</v>
       </c>
       <c r="Q6">
-        <v>8.233419221542521</v>
+        <v>8.646015949931556</v>
       </c>
       <c r="R6">
-        <v>8.233419221542521</v>
+        <v>77.814143549384</v>
       </c>
       <c r="S6">
-        <v>0.1258489338727724</v>
+        <v>0.04631826922557677</v>
       </c>
       <c r="T6">
-        <v>0.1258489338727724</v>
+        <v>0.04631826922557677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H7">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I7">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J7">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.32769284714904</v>
+        <v>3.710224333333334</v>
       </c>
       <c r="N7">
-        <v>3.32769284714904</v>
+        <v>11.130673</v>
       </c>
       <c r="O7">
-        <v>0.4673123245460469</v>
+        <v>0.4871701881076649</v>
       </c>
       <c r="P7">
-        <v>0.4673123245460469</v>
+        <v>0.4871701881076648</v>
       </c>
       <c r="Q7">
-        <v>8.189387435007294</v>
+        <v>9.366148433914557</v>
       </c>
       <c r="R7">
-        <v>8.189387435007294</v>
+        <v>84.29533590523101</v>
       </c>
       <c r="S7">
-        <v>0.1251759020201646</v>
+        <v>0.05017614902412978</v>
       </c>
       <c r="T7">
-        <v>0.1251759020201646</v>
+        <v>0.05017614902412978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H8">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I8">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J8">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.44764055915157</v>
+        <v>0.4806873333333333</v>
       </c>
       <c r="N8">
-        <v>0.44764055915157</v>
+        <v>1.442062</v>
       </c>
       <c r="O8">
-        <v>0.0628627580329211</v>
+        <v>0.06311654432781515</v>
       </c>
       <c r="P8">
-        <v>0.0628627580329211</v>
+        <v>0.06311654432781515</v>
       </c>
       <c r="Q8">
-        <v>1.040068030490729</v>
+        <v>1.220509522797111</v>
       </c>
       <c r="R8">
-        <v>1.040068030490729</v>
+        <v>10.984585705174</v>
       </c>
       <c r="S8">
-        <v>0.01589758146286764</v>
+        <v>0.00653848998159023</v>
       </c>
       <c r="T8">
-        <v>0.01589758146286764</v>
+        <v>0.00653848998159023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H9">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I9">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J9">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.34558481553658</v>
+        <v>3.424957333333333</v>
       </c>
       <c r="N9">
-        <v>3.34558481553658</v>
+        <v>10.274872</v>
       </c>
       <c r="O9">
-        <v>0.4698249174210321</v>
+        <v>0.44971326756452</v>
       </c>
       <c r="P9">
-        <v>0.4698249174210321</v>
+        <v>0.44971326756452</v>
       </c>
       <c r="Q9">
-        <v>7.773280903164594</v>
+        <v>8.696282907060443</v>
       </c>
       <c r="R9">
-        <v>7.773280903164594</v>
+        <v>78.26654616354399</v>
       </c>
       <c r="S9">
-        <v>0.118815657023422</v>
+        <v>0.04658755839493862</v>
       </c>
       <c r="T9">
-        <v>0.118815657023422</v>
+        <v>0.04658755839493862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H10">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I10">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J10">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.32769284714904</v>
+        <v>3.710224333333334</v>
       </c>
       <c r="N10">
-        <v>3.32769284714904</v>
+        <v>11.130673</v>
       </c>
       <c r="O10">
-        <v>0.4673123245460469</v>
+        <v>0.4871701881076649</v>
       </c>
       <c r="P10">
-        <v>0.4673123245460469</v>
+        <v>0.4871701881076648</v>
       </c>
       <c r="Q10">
-        <v>7.731709906207346</v>
+        <v>9.420602159713445</v>
       </c>
       <c r="R10">
-        <v>7.731709906207346</v>
+        <v>84.78541943742101</v>
       </c>
       <c r="S10">
-        <v>0.1181802386745774</v>
+        <v>0.05046786746953799</v>
       </c>
       <c r="T10">
-        <v>0.1181802386745774</v>
+        <v>0.05046786746953798</v>
       </c>
     </row>
   </sheetData>
